--- a/Problem_user.xlsx
+++ b/Problem_user.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase" sheetId="2" r:id="rId2"/>
+    <sheet name="Test scenario" sheetId="3" r:id="rId3"/>
+    <sheet name="Defect report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="238">
   <si>
     <t>Funcionality ID</t>
   </si>
@@ -694,12 +696,156 @@
     <t>user name : problem_user
 Password : Secre</t>
   </si>
+  <si>
+    <t>Test Id</t>
+  </si>
+  <si>
+    <t>Test summary</t>
+  </si>
+  <si>
+    <t>Defect Id</t>
+  </si>
+  <si>
+    <t>Defect summary</t>
+  </si>
+  <si>
+    <t>Reproduced Step</t>
+  </si>
+  <si>
+    <t>Defect types</t>
+  </si>
+  <si>
+    <t>Defect severity</t>
+  </si>
+  <si>
+    <t>Defect priority</t>
+  </si>
+  <si>
+    <t>Tester name</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>viraj desai</t>
+  </si>
+  <si>
+    <t>functionability, usability</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rEHAJrGdj2Py4FK0JB5ou0Mf5HwUxmBR/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17icVgKdTvAjZFL0dpHIeET3N-6Y-5Cci/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xk2OtSJ4QyesmO0dv6Bmgt-_bc-AHGad/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Vyg99S_uvr1gGZRT6MrDP76b3MtHvcPH/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1P1-weD1c6figV5Zv_W7dUMf9eLlIZzak/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PxSR51TmGju3GoZMzYOTGldjmoT_GeLo/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1t9zalBEFjApyLwmy_r-U6eBhHkwJXd4O/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ou7WyLR7BnTHoq-BHuUnndvWMnJyDy4h/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZmJiE8p4gMOO1Klk4ufElkr3WZRLrlbV/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EQotnz4lIRw590QtEBuEryDlz5IaQSaX/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zJZfVrJ2dfr9Nq79JgmjKqzPk7W6dZ-G/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CRI9ZWtpCh0ExgWXCBPS_ScEarv7BalC/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10PR3oOkDbYfFMDNDXjrO09PT1K1u3ZRc/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RQ4678JwemrAE9o6_XEsIiTLElEKDUKo/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11t2Wb5aVNUiDuISByjqF85vphDmI2ILj/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xfmEtM67Ay8n50qBah_lL0RCaSy3ws9S/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TwfPTL0MP03rq2VysmuU8v7vlMpSLeoC/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y4x15GHB6l8ZjUNSBh0jS25Cere-gW0_/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ndFOLkzcFTmwm8xLuiMAJlWMUHsw1Ogc/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15Dx0UqlpGAgUX31tArV4NmmAn0qb-Q0D/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FwzoceMi4qMsLqwz3PDAI5a415KR4uT5/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CZK5kObdS4nVOM3JpolGAgUXIJt4-2jr/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zdV0JGk7CiZvw67EZmai01gN3yicxP0I/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j8bLnOFkiE8bMcvBTRrRLXsRlPgLp0yr/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ql9VKZ91buZ-je1_1AsYTkd7Hp-WQbis/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Tv3h0hWwq7TPRg0V5NaghEvRXASN-Jsy/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BpRVUskumd4RC99Ll7YbDbvi-HLn5Xg-/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CFEyh1DWSDCT_jj3zw22IauoFCcg30Pu/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OZfULisM8-LV6sLv74wWJlygMNsC4Ivz/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>critical functionality</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>usability</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>functionability</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +880,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -774,10 +927,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,8 +964,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1061,6 +1222,135 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257301</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1009650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9324975" y="23174325"/>
+          <a:ext cx="142876" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>838200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Block Arc 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9324975" y="23098125"/>
+          <a:ext cx="152400" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1356,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2641,7 +2931,7 @@
       <c r="F32" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="9" t="s">
         <v>117</v>
       </c>
       <c r="H32" s="9" t="s">
@@ -2670,7 +2960,7 @@
       <c r="F33" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="9" t="s">
         <v>118</v>
       </c>
       <c r="H33" s="9" t="s">
@@ -2699,7 +2989,7 @@
       <c r="F34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="9" t="s">
         <v>119</v>
       </c>
       <c r="H34" s="9" t="s">
@@ -2815,7 +3105,7 @@
       <c r="F38" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="9" t="s">
         <v>123</v>
       </c>
       <c r="H38" s="9" t="s">
@@ -2931,7 +3221,7 @@
       <c r="F42" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H42" s="9" t="s">
@@ -3244,4 +3534,2195 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="38.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="63">
+      <c r="A3" s="6">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75.75">
+      <c r="A4" s="6">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="94.5">
+      <c r="A5" s="6">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2">
+        <v>301</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75.75">
+      <c r="A6" s="6">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2">
+        <v>400</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="94.5">
+      <c r="A7" s="6">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2">
+        <v>401</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="113.25">
+      <c r="A8" s="6">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2">
+        <v>502</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="75.75">
+      <c r="A9" s="6">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2">
+        <v>515</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75.75">
+      <c r="A10" s="6">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2">
+        <v>506</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="94.5">
+      <c r="A11" s="6">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2">
+        <v>509</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="94.5">
+      <c r="A12" s="6">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2">
+        <v>510</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="113.25">
+      <c r="A13" s="6">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2">
+        <v>511</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75.75">
+      <c r="A14" s="6">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2">
+        <v>700</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75.75">
+      <c r="A15" s="6">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2">
+        <v>701</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75.75">
+      <c r="A16" s="6">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <v>702</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="94.5">
+      <c r="A17" s="6">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2">
+        <v>801</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75">
+      <c r="A18" s="6">
+        <v>46</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75">
+      <c r="A19" s="6">
+        <v>47</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75">
+      <c r="A20" s="6">
+        <v>48</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75">
+      <c r="A21" s="6">
+        <v>49</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75">
+      <c r="A22" s="6">
+        <v>50</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="7:7">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="7:7">
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="7:7">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="7:7">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="7:7">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="7:7">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="7:7">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="7:7">
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="7:7">
+      <c r="G61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="8" width="24.42578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="30" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.85546875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="75.75">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="61.5">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="84">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="84">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="84">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="75.75">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="84">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="75.75">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="75.75">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="84">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="84">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="94.5">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="84">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="75.75">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="94.5">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="105">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="75.75">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="84">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="84">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="75.75">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="84">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="94.5">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="94.5">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="94.5">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>27</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="76.5">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="75.75">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="94.5">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>33</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="75.75">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>37</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="113.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>41</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18.75">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>46</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" ht="18.75">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>47</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" ht="18.75">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>48</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" ht="18.75">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>49</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" ht="18.75">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>50</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" ht="18.75">
+      <c r="A36" s="6"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:13" ht="18.75">
+      <c r="A37" s="6"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:13" ht="18.75">
+      <c r="A38" s="6"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:13" ht="18.75">
+      <c r="A39" s="6"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:13" ht="18.75">
+      <c r="A40" s="6"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:13" ht="18.75">
+      <c r="A41" s="6"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:13" ht="18.75">
+      <c r="A42" s="6"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="1:13" ht="18.75">
+      <c r="A43" s="6"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:13" ht="18.75">
+      <c r="A44" s="6"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:13" ht="18.75">
+      <c r="A45" s="6"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="1:13" ht="18.75">
+      <c r="A46" s="6"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="1:13" ht="18.75">
+      <c r="A47" s="6"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:13" ht="18.75">
+      <c r="A48" s="6"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:12" ht="18.75">
+      <c r="A49" s="6"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="1:12" ht="18.75">
+      <c r="A50" s="6"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="1:12" ht="18.75">
+      <c r="A51" s="6"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="1:12" ht="18.75">
+      <c r="A52" s="6"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:12" ht="18.75">
+      <c r="A53" s="6"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="1:12" ht="18.75">
+      <c r="A54" s="6"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+    </row>
+    <row r="55" spans="1:12" ht="18.75">
+      <c r="A55" s="6"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="1:12" ht="18.75">
+      <c r="A56" s="6"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="1:12" ht="18.75">
+      <c r="A57" s="6"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="1:12" ht="18.75">
+      <c r="A58" s="6"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+    </row>
+    <row r="59" spans="1:12" ht="18.75">
+      <c r="A59" s="6"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+    </row>
+    <row r="60" spans="1:12" ht="18.75">
+      <c r="A60" s="6"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="1:12" ht="18.75">
+      <c r="A61" s="6"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="1:12" ht="18.75">
+      <c r="A62" s="6"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="10:12">
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="10:12">
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="10:12">
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="10:12">
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+    </row>
+    <row r="69" spans="10:12">
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+    </row>
+    <row r="70" spans="10:12">
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+    </row>
+    <row r="71" spans="10:12">
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="10:12">
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="10:12">
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+    </row>
+    <row r="74" spans="10:12">
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
+    <hyperlink ref="L21" r:id="rId20"/>
+    <hyperlink ref="L22" r:id="rId21"/>
+    <hyperlink ref="L23" r:id="rId22"/>
+    <hyperlink ref="L24" r:id="rId23"/>
+    <hyperlink ref="L25" r:id="rId24"/>
+    <hyperlink ref="L26" r:id="rId25"/>
+    <hyperlink ref="L27" r:id="rId26"/>
+    <hyperlink ref="L28" r:id="rId27"/>
+    <hyperlink ref="L29" r:id="rId28"/>
+    <hyperlink ref="L30" r:id="rId29"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>